--- a/src/test/resources/temp/ClasseurTest.xlsx
+++ b/src/test/resources/temp/ClasseurTest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heynerr\Documents\W-Workspace\ExcelUtils\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heynerr\Documents\W-Workspace\ExcelUtils\src\test\resources\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F5D107-879F-431A-9E62-73D33121CC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8136"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,11 +348,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -360,6 +361,24 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
@@ -368,5 +387,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;9&amp;K000000 Confidentiel</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{820d33d7-bbe4-47b8-a5ad-6a3992657a09}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="3" removed="0"/>
+</clbl:labelList>
 </file>